--- a/data/trans_camb/P43-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P43-Clase-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.23766509984942</v>
+        <v>-11.23470361426107</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.405791057220324</v>
+        <v>-4.445785747224899</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.785390053218915</v>
+        <v>8.108285687388115</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.308821567767056</v>
+        <v>4.995768969553241</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.94840388481418</v>
+        <v>11.02175061519765</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23.46327917856115</v>
+        <v>23.02491793656912</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2090395536203274</v>
+        <v>-0.226207642466982</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.08608368597466569</v>
+        <v>-0.08778219583959206</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1794325087371706</v>
+        <v>0.1575440956038192</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1233474866987934</v>
+        <v>0.1161412273572133</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2756129198814285</v>
+        <v>0.2712704419665106</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5742299076113978</v>
+        <v>0.5597722025725173</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>15.44831731213203</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28.41856507523197</v>
+        <v>28.41856507523196</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4394967665230193</v>
+        <v>0.364074185363319</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.501808252598939</v>
+        <v>8.363014105637214</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21.11908915503222</v>
+        <v>21.66205968188237</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.86790571242428</v>
+        <v>15.26521519158463</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>22.14064745741502</v>
+        <v>22.80756806448436</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34.9657761440035</v>
+        <v>35.89997302811193</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>0.4955792857099873</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.91166253879482</v>
+        <v>0.9116625387948195</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.01241279099172515</v>
+        <v>0.009841472418090826</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2147262254083148</v>
+        <v>0.2501447520051711</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5993991498497986</v>
+        <v>0.5987375504163638</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5769899436971827</v>
+        <v>0.5549343043588696</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8014061404838481</v>
+        <v>0.8211005534265305</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.266095002539048</v>
+        <v>1.309434295359713</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>14.89838615507737</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21.35000710049306</v>
+        <v>21.35000710049305</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7116073251693906</v>
+        <v>1.40854554180062</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.491208071829766</v>
+        <v>4.189811663586158</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.18954345294351</v>
+        <v>9.882583131477288</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.22183589325437</v>
+        <v>21.1677402832877</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>25.05639685173589</v>
+        <v>25.97196388973989</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>31.83843586504563</v>
+        <v>32.51080505017428</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>0.3627805352638797</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5198795979096624</v>
+        <v>0.5198795979096622</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.01123255022606804</v>
+        <v>0.02781589286586903</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.07226518142651188</v>
+        <v>0.0903068474848619</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2143509709955797</v>
+        <v>0.2155590385034208</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6229880826449572</v>
+        <v>0.5984081731889067</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7152321731323016</v>
+        <v>0.7258158471307606</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9024143166981174</v>
+        <v>0.9118582223716464</v>
       </c>
     </row>
     <row r="22">
@@ -908,7 +908,7 @@
         <v>7.818211362981548</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14.90740162207249</v>
+        <v>14.90740162207248</v>
       </c>
     </row>
     <row r="23">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.140752548247951</v>
+        <v>1.054872778771321</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.379393108248337</v>
+        <v>2.818174083631618</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10.02067811898659</v>
+        <v>10.11671732197044</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.22348935679014</v>
+        <v>11.50662094856714</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.19206631478849</v>
+        <v>12.53411570659009</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19.89952211245131</v>
+        <v>19.99012381160415</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>0.2344551739440304</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4470482157729274</v>
+        <v>0.447048215772927</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.03235480856183246</v>
+        <v>0.02881117265952074</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.09421239003603839</v>
+        <v>0.07774658514148687</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2787833227700477</v>
+        <v>0.2833536099400452</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3627053930059522</v>
+        <v>0.3721109857193238</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4416194131974947</v>
+        <v>0.4112378598121446</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6493475029916407</v>
+        <v>0.6654113943335345</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>10.2995396616519</v>
+        <v>9.705179679343608</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>15.23020583987676</v>
+        <v>15.17346728949182</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12.42826752569495</v>
+        <v>12.12877246507548</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>21.00700182416967</v>
+        <v>20.8390520403781</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>26.22900489362265</v>
+        <v>25.87191375077445</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22.9250892429866</v>
+        <v>22.92181729393724</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2631003594827121</v>
+        <v>0.2542041352590958</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.3894716071960949</v>
+        <v>0.3834631320515484</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.301400881191318</v>
+        <v>0.3093115303998929</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6341838714167918</v>
+        <v>0.6430157780641246</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7861245044795802</v>
+        <v>0.7911945545756371</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6901041176752675</v>
+        <v>0.6994192904097615</v>
       </c>
     </row>
     <row r="34">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>6.861025172836231</v>
+        <v>6.468775409408346</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>7.164032786657071</v>
+        <v>6.837731200595837</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.0166460435966423</v>
+        <v>-0.2263269439823751</v>
       </c>
     </row>
     <row r="36">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>14.94871657627968</v>
+        <v>15.29719406121407</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>15.54017102371836</v>
+        <v>15.70779726745696</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.635023778526312</v>
+        <v>9.554482923535302</v>
       </c>
     </row>
     <row r="37">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.1602641572017907</v>
+        <v>0.1532262123027485</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.1708889126990809</v>
+        <v>0.1580650833443878</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.0004879380725607262</v>
+        <v>-0.003201503264195805</v>
       </c>
     </row>
     <row r="39">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.379663722909449</v>
+        <v>0.3954775973306151</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4011125349367489</v>
+        <v>0.4038671228096181</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.2200726946683637</v>
+        <v>0.252425902669846</v>
       </c>
     </row>
     <row r="40">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>6.878562031442041</v>
+        <v>6.64444696314871</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>9.654798421160008</v>
+        <v>9.765736096285448</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>12.11396762305335</v>
+        <v>12.20911407477725</v>
       </c>
     </row>
     <row r="42">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>11.60364611946703</v>
+        <v>11.68498962761955</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>14.41231759766159</v>
+        <v>14.69675099345931</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>16.96564066967495</v>
+        <v>17.13670193203383</v>
       </c>
     </row>
     <row r="43">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1754782402004324</v>
+        <v>0.1691066737070531</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.243747905455279</v>
+        <v>0.2504131949483803</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3124746315019626</v>
+        <v>0.3123490500353935</v>
       </c>
     </row>
     <row r="45">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3148627496703484</v>
+        <v>0.3165021511250424</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3929797565430492</v>
+        <v>0.4009194101142653</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4634966094123862</v>
+        <v>0.466567012241365</v>
       </c>
     </row>
     <row r="46">
